--- a/biology/Microbiologie/Acidobacteriaceae/Acidobacteriaceae.xlsx
+++ b/biology/Microbiologie/Acidobacteriaceae/Acidobacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acidobacteriaceae sont une famille de l’ordre des Acidobacteriales.
 </t>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) J. Cameron Thrash et John D. Coates, « Phylum XVII. Acidobacteria phyl. nov. », dans N.R. Krieg, J.T. Staley, D.R. Brown, B.P. Hedlund, B.J. Paster, N.L. Ward, W. Ludwig, et W.B. Whitman, Bergey's Manual of Systematic Bacteriology, 2nd ed., vol. 4 (The Bacteroidetes, Spirochaetes, Tenericutes (Mollicutes), Acidobacteria, Fibrobacteres, Fusobacteria, Dictyglomi, Gemmatimonadetes, Lentisphaerae, Verrumicrobia, Chlamydiae, and Planctomycetes), New-York, Springer-Verlag, 2011 (ISBN 978-0-387-68572-4), p. 728.
 </t>
@@ -542,15 +556,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (3 octobre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (3 octobre 2020) :
 genre Acidobacterium Kishimoto, Kosako &amp; Tano, 1991
 genre Chloracidobacterium Bryant &amp; al. 2007
 genre Geothrix Coates, Ellis, Gaw &amp; Lovley, 1999
 genre Holophaga Liesack, Bak, Kreft &amp; Stackebrandt, 1995
 genre Terriglobus Eichorst, Breznak &amp; Schmidt, 2007
-Selon Catalogue of Life                                   (3 octobre 2020)[3] et ITIS      (3 octobre 2020)[1] :
+Selon Catalogue of Life                                   (3 octobre 2020) et ITIS      (3 octobre 2020) :
 genre Acidicapsa Kulichevskaya &amp; al., 2012
 genre Acidobacterium Kishimoto &amp; al., 1991
 genre Bryocella Dedysh &amp; al., 2012
@@ -558,7 +574,7 @@
 genre Granulicella Pankratov &amp; Dedysh, 2010
 genre Telmatobacter Pankratov &amp; al., 2012
 genre Terriglobus Eichorst &amp; al., 2007
-Selon NCBI  (3 octobre 2020)[4] :
+Selon NCBI  (3 octobre 2020) :
 genre Acidicapsa Kulichevskaya &amp; al. 2012 emend. Falagan &amp; al. 2017
 genre Acidipila Okamura &amp; al. 2015
 genre Acidisarcina "" Belova &amp; al. 2018
@@ -574,7 +590,7 @@
 genre Telmatobacter Pankratov &amp; al. 2012
 genre Terracidiphilus Garcia-Fraile &amp; al. 2016
 genre Terriglobus Eichorst &amp; al. 2007
-Selon World Register of Marine Species                               (3 octobre 2020)[5] :
+Selon World Register of Marine Species                               (3 octobre 2020) :
 genre Edaphobacter Koch, Gich, Dunfield &amp; Overmann, 2008
 </t>
         </is>
